--- a/tests/shared_code/application/dml/test_data/DMLValueBuilder/PictMaster_DMLValueBuilder_テストパターン_生成結果.xlsx
+++ b/tests/shared_code/application/dml/test_data/DMLValueBuilder/PictMaster_DMLValueBuilder_テストパターン_生成結果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\ghq\github.com\ecormaksin\create_dml\tests\shared_code\application\dml\test_data\DMLValueBuilder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\ghq\github.com\ecormaksin\python_sql_tools\tests\shared_code\application\dml\test_data\DMLValueBuilder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2D6E77B1-A1A6-4C2B-8AFE-CC68DC2F2C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E2D0B8-E6FE-4DCD-B31A-3D4DC2D54F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{CFB932E3-3ACD-42A5-BF0D-0345DED74F4C}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
   <si>
     <t>カラムの引用符要否</t>
   </si>
@@ -34,9 +34,6 @@
     <t>カラム値の要否</t>
   </si>
   <si>
-    <t>カラム値の引用符</t>
-  </si>
-  <si>
     <t>セルの値</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>不要</t>
   </si>
   <si>
-    <t>影響なし</t>
-  </si>
-  <si>
     <t>None文字列</t>
   </si>
   <si>
@@ -83,6 +77,65 @@
   </si>
   <si>
     <t xml:space="preserve"> No. </t>
+  </si>
+  <si>
+    <t>あり_引用符あり</t>
+  </si>
+  <si>
+    <t>あり_引用符なし</t>
+  </si>
+  <si>
+    <t>期待値</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>N'test_default_value'</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_column_value</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>'test_column_value'</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>''</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>セルのテスト値</t>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>'None'</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カラム値への引用符追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test_default_value</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -690,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +757,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,24 +1146,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF914BB-9FF8-4804-94D7-AA39CD546B43}">
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1110,16 +1177,20 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -1164,31 +1235,36 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
       <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1233,31 +1309,36 @@
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1302,31 +1383,36 @@
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1371,31 +1457,36 @@
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1440,31 +1531,36 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1509,31 +1605,36 @@
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1578,31 +1679,36 @@
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1647,31 +1753,36 @@
       <c r="AY8" s="4"/>
       <c r="AZ8" s="4"/>
       <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1716,31 +1827,36 @@
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
       <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1785,31 +1901,36 @@
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
       <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9999</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1854,31 +1975,36 @@
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9999</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1923,31 +2049,36 @@
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1992,15 +2123,75 @@
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{6DF914BB-9FF8-4804-94D7-AA39CD546B43}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:BA13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:BB13">
     <sortCondition ref="B2"/>
     <sortCondition ref="C2"/>
     <sortCondition ref="D2"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>